--- a/data/Microtagscan_BoardToken.xlsx
+++ b/data/Microtagscan_BoardToken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B74452-C503-1A40-A3DF-4418F5A25DC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E565A2-FA56-0045-827E-BF5ED33FA775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="960" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
+    <workbookView xWindow="13540" yWindow="1980" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>BNAKU</t>
+    <t>RLAUD</t>
   </si>
   <si>
-    <t>YMAKV</t>
+    <t>YNAVD</t>
   </si>
   <si>
-    <t>RPALU</t>
+    <t>Batch 1</t>
+  </si>
+  <si>
+    <t>Batch 2</t>
   </si>
 </sst>
 </file>
@@ -393,29 +396,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DF2D2-8101-7744-9429-07D6A9F91C0A}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/Microtagscan_BoardToken.xlsx
+++ b/data/Microtagscan_BoardToken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E565A2-FA56-0045-827E-BF5ED33FA775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C9A05F-3DA7-894A-A48C-477B1A5AC2B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="1980" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
+    <workbookView xWindow="10760" yWindow="1980" windowWidth="27640" windowHeight="16940" xr2:uid="{E4C4474D-DA56-BE42-B5D1-1EC815E366D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
